--- a/docss/trend/spain/E_polymorphs.xlsx
+++ b/docss/trend/spain/E_polymorphs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej17_Polimalformados_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej17_Polimalformados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.323476720489974</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C2">
-        <v>0.36638599441264902</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D2">
-        <v>0.27840866760217198</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.29019605726053699</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3">
-        <v>0.29019438971834299</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D3">
-        <v>0.29019371940697902</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.23589846227724101</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C4">
-        <v>0.24220980505970799</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D4">
-        <v>0.229256468733955</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.26057539282391001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="C5">
-        <v>0.31764572217310499</v>
+        <v>0.318</v>
       </c>
       <c r="D5">
-        <v>0.19973858838328501</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.230990275609741</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="C6">
-        <v>0.27733879570072301</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D6">
-        <v>0.18173944307638101</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.20109464068484401</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C7">
-        <v>0.198647620348882</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D7">
-        <v>0.20333962608982201</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.13515387860808001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C8">
-        <v>0.13693136942904599</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D8">
-        <v>0.13321608607973701</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.196532282019942</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C9">
-        <v>0.242344386645098</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D9">
-        <v>0.14791273228687399</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.13120378399029101</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C10">
-        <v>0.16446742906460601</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D10">
-        <v>9.5874890642702895E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.17754287052935799</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C11">
-        <v>0.20189948077506201</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D11">
-        <v>0.151612585232931</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.12347763539621701</v>
+        <v>0.123</v>
       </c>
       <c r="C12">
-        <v>8.2888375849861098E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D12">
-        <v>0.16643680915307901</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.1008536423676</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C13">
-        <v>0.12961729725385901</v>
+        <v>0.13</v>
       </c>
       <c r="D13">
-        <v>7.0253454555883998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.11375541683001</v>
+        <v>0.114</v>
       </c>
       <c r="C14">
-        <v>0.108871469961886</v>
+        <v>0.109</v>
       </c>
       <c r="D14">
-        <v>0.118964633689951</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>4.8533637134118499E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C15">
-        <v>6.3909820998216599E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>3.3378199196086103E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>6.2668545244011206E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C16">
-        <v>7.0267550187827502E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16">
-        <v>5.4584035534207098E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
   </sheetData>
